--- a/数据整理/stocks/港股/00884-旭辉控股集团.xlsx
+++ b/数据整理/stocks/港股/00884-旭辉控股集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>005646</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>中海沪港深多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005646</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中海沪港深多策略灵活配置混合</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002214</t>
+          <t>005646</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
+          <t>中海沪港深多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.24</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005646</t>
+          <t>002214</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中海沪港深多策略灵活配置混合</t>
+          <t>中海沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.75</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -818,25 +938,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.40</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.24</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -846,25 +976,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.90</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.32</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00884-旭辉控股集团.xlsx
+++ b/数据整理/stocks/港股/00884-旭辉控股集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00884-旭辉控股集团.xlsx
+++ b/数据整理/stocks/港股/00884-旭辉控股集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00884-旭辉控股集团.xlsx
+++ b/数据整理/stocks/港股/00884-旭辉控股集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00884-旭辉控股集团.xlsx
+++ b/数据整理/stocks/港股/00884-旭辉控股集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3</v>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4930</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1604,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.31</v>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1555,13 +1642,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00884-旭辉控股集团.xlsx
+++ b/数据整理/stocks/港股/00884-旭辉控股集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2179,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,17 +2191,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2210,14 +2231,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.99</v>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6733</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2226,14 +2269,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3</v>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3905</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2242,14 +2307,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.13</v>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3799</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2258,14 +2345,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.31</v>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3689</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2274,13 +2383,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00884-旭辉控股集团.xlsx
+++ b/数据整理/stocks/港股/00884-旭辉控股集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2844,7 +2845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2855,17 +2856,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2875,14 +2896,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.71</v>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8765</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2891,14 +2934,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.99</v>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5432</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2907,14 +2972,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3</v>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4515</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2923,14 +3010,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.13</v>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2939,14 +3048,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.31</v>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3740</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2955,13 +3086,713 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00884-旭辉控股集团.xlsx
+++ b/数据整理/stocks/港股/00884-旭辉控股集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3.52</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>2.71</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>1.99</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1413,7 +1638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2077,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2779,7 +3004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3063,7 +3288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3195,7 +3420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3479,7 +3704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
